--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_NhatQuang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH02" sheetId="45" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -259,6 +259,24 @@
   </si>
   <si>
     <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>112.078.011.007,16833</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>Restore thiết bị</t>
   </si>
 </sst>
 </file>
@@ -10125,8 +10143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10339,7 +10357,9 @@
       <c r="B6" s="61">
         <v>44846</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44851</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>65</v>
       </c>
@@ -10361,12 +10381,22 @@
       <c r="L6" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
       <c r="U6" s="78" t="s">
@@ -10781,7 +10811,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -11250,7 +11280,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11314,7 +11344,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -12407,8 +12437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12616,23 +12646,47 @@
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
+      <c r="B6" s="61">
+        <v>44847</v>
+      </c>
+      <c r="C6" s="61">
+        <v>44851</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="38">
+        <v>868183037798134</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>69</v>
+      </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="63" t="s">
+        <v>71</v>
+      </c>
       <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
+      <c r="K6" s="65" t="s">
+        <v>70</v>
+      </c>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>74</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
       <c r="U6" s="78" t="s">
@@ -13047,7 +13101,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13548,7 +13602,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13580,7 +13634,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_NhatQuang.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -728,30 +728,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,6 +745,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1112,39 +1112,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1189,58 +1189,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1265,23 +1265,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1307,7 +1307,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1338,7 +1338,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1367,7 +1367,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1396,7 +1396,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1454,7 +1454,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1483,7 +1483,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1514,7 +1514,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1601,7 +1601,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3317,6 +3317,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3328,13 +3335,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3378,39 +3378,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3455,58 +3455,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3531,23 +3531,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3573,7 +3573,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3604,7 +3604,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3662,7 +3662,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3780,7 +3780,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3809,7 +3809,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3838,7 +3838,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3867,7 +3867,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5583,13 +5583,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5601,6 +5594,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5644,39 +5644,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5721,58 +5721,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5797,23 +5797,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5839,7 +5839,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5870,7 +5870,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5899,7 +5899,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5928,7 +5928,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5957,7 +5957,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5986,7 +5986,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6015,7 +6015,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6046,7 +6046,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6075,7 +6075,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6104,7 +6104,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6133,7 +6133,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7849,13 +7849,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7867,6 +7860,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7910,39 +7910,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7987,58 +7987,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8063,23 +8063,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8105,7 +8105,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8136,7 +8136,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8165,7 +8165,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8194,7 +8194,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8223,7 +8223,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8252,7 +8252,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8281,7 +8281,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8312,7 +8312,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8341,7 +8341,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8370,7 +8370,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8399,7 +8399,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10115,13 +10115,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10133,6 +10126,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10176,41 +10176,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10255,58 +10255,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10331,23 +10331,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10399,7 +10399,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10430,7 +10430,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10459,7 +10459,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10488,7 +10488,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10517,7 +10517,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10546,7 +10546,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10575,7 +10575,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10606,7 +10606,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10635,7 +10635,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10664,7 +10664,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10693,7 +10693,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12409,13 +12409,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12427,6 +12420,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12438,7 +12438,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12470,39 +12470,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12547,58 +12549,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12623,23 +12625,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12689,7 +12691,7 @@
       </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12701,16 +12703,28 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="61">
+        <v>44860</v>
+      </c>
       <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
+      <c r="D7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="38">
+        <v>868183035865646</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="37" t="s">
+        <v>69</v>
+      </c>
       <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
+      <c r="I7" s="63" t="s">
+        <v>71</v>
+      </c>
       <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
+      <c r="K7" s="65" t="s">
+        <v>70</v>
+      </c>
       <c r="L7" s="66"/>
       <c r="M7" s="66"/>
       <c r="N7" s="64"/>
@@ -12720,7 +12734,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12749,7 +12763,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12778,7 +12792,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12807,7 +12821,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12836,7 +12850,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12865,7 +12879,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12896,7 +12910,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12925,7 +12939,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12954,7 +12968,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12983,7 +12997,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14699,13 +14713,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14717,6 +14724,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14760,39 +14774,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14837,58 +14851,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14913,23 +14927,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14955,7 +14969,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14986,7 +15000,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15015,7 +15029,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15044,7 +15058,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15073,7 +15087,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15102,7 +15116,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15131,7 +15145,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15162,7 +15176,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15191,7 +15205,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15220,7 +15234,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15249,7 +15263,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16965,13 +16979,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16983,6 +16990,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17026,39 +17040,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17103,58 +17117,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17179,23 +17193,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17221,7 +17235,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17252,7 +17266,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17281,7 +17295,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17310,7 +17324,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17339,7 +17353,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17368,7 +17382,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17397,7 +17411,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17428,7 +17442,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17457,7 +17471,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17486,7 +17500,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17515,7 +17529,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19231,13 +19245,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19249,6 +19256,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19292,39 +19306,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19369,58 +19383,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19445,23 +19459,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19487,7 +19501,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19518,7 +19532,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19547,7 +19561,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19576,7 +19590,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19605,7 +19619,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19634,7 +19648,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19663,7 +19677,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19694,7 +19708,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19723,7 +19737,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19752,7 +19766,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19781,7 +19795,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21012,6 +21026,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21023,13 +21044,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_NhatQuang.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>Restore thiết bị</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.181005</t>
+  </si>
+  <si>
+    <t>112.078.011.007,13368</t>
   </si>
 </sst>
 </file>
@@ -728,6 +734,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,30 +775,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1112,39 +1118,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1189,58 +1195,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1265,23 +1271,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1307,7 +1313,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1338,7 +1344,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1367,7 +1373,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1396,7 +1402,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1425,7 +1431,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1454,7 +1460,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1483,7 +1489,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1514,7 +1520,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1543,7 +1549,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1572,7 +1578,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1601,7 +1607,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3317,13 +3323,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3335,6 +3334,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3378,39 +3384,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3455,58 +3461,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3531,23 +3537,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3573,7 +3579,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3604,7 +3610,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3633,7 +3639,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3662,7 +3668,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3691,7 +3697,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3720,7 +3726,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3749,7 +3755,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3780,7 +3786,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3809,7 +3815,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3838,7 +3844,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3867,7 +3873,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5583,6 +5589,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5594,13 +5607,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5644,39 +5650,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5721,58 +5727,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5797,23 +5803,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5839,7 +5845,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5870,7 +5876,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5899,7 +5905,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5928,7 +5934,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5957,7 +5963,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5986,7 +5992,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6015,7 +6021,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6046,7 +6052,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6075,7 +6081,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6104,7 +6110,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6133,7 +6139,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7849,6 +7855,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7860,13 +7873,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7910,39 +7916,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7987,58 +7993,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8063,23 +8069,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8105,7 +8111,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8136,7 +8142,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8165,7 +8171,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8194,7 +8200,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8223,7 +8229,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8252,7 +8258,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8281,7 +8287,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8312,7 +8318,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8341,7 +8347,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8370,7 +8376,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8399,7 +8405,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10115,6 +10121,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10126,13 +10139,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10176,41 +10182,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10255,58 +10261,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10331,23 +10337,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10399,7 +10405,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10430,7 +10436,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10459,7 +10465,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10488,7 +10494,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10517,7 +10523,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10546,7 +10552,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10575,7 +10581,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10606,7 +10612,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10635,7 +10641,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10664,7 +10670,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10693,7 +10699,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12409,6 +12415,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12420,13 +12433,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12437,8 +12443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12470,41 +12476,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12549,58 +12555,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12625,23 +12631,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12691,7 +12697,7 @@
       </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12734,7 +12740,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12744,17 +12750,31 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="61">
+        <v>44860</v>
+      </c>
       <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="D8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="38">
+        <v>868183034743455</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="37" t="s">
+        <v>69</v>
+      </c>
       <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
+      <c r="I8" s="63" t="s">
+        <v>76</v>
+      </c>
       <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
+      <c r="K8" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="65" t="s">
+        <v>70</v>
+      </c>
       <c r="M8" s="66"/>
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
@@ -12763,7 +12783,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12792,7 +12812,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12821,7 +12841,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12850,7 +12870,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12879,7 +12899,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12910,7 +12930,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12939,7 +12959,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12968,7 +12988,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12997,7 +13017,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14713,6 +14733,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14724,13 +14751,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14774,39 +14794,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14851,58 +14871,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14927,23 +14947,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14969,7 +14989,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15000,7 +15020,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15029,7 +15049,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15058,7 +15078,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15087,7 +15107,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15116,7 +15136,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15145,7 +15165,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15176,7 +15196,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15205,7 +15225,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15234,7 +15254,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15263,7 +15283,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16979,6 +16999,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16990,13 +17017,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17040,39 +17060,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17117,58 +17137,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17193,23 +17213,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17235,7 +17255,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17266,7 +17286,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17295,7 +17315,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17324,7 +17344,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17353,7 +17373,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17382,7 +17402,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17411,7 +17431,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17442,7 +17462,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17471,7 +17491,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17500,7 +17520,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17529,7 +17549,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19245,6 +19265,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19256,13 +19283,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19306,39 +19326,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19383,58 +19403,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19459,23 +19479,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19501,7 +19521,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19532,7 +19552,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19561,7 +19581,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19590,7 +19610,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19619,7 +19639,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19648,7 +19668,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19677,7 +19697,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19708,7 +19728,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19737,7 +19757,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19766,7 +19786,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19795,7 +19815,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21026,13 +21046,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21044,6 +21057,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_NhatQuang.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -734,30 +734,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -775,6 +751,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1118,39 +1118,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1195,58 +1195,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1271,23 +1271,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1344,7 +1344,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1489,7 +1489,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1520,7 +1520,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3323,6 +3323,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3334,13 +3341,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3384,39 +3384,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3461,58 +3461,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3537,23 +3537,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3579,7 +3579,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3610,7 +3610,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3639,7 +3639,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3668,7 +3668,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3726,7 +3726,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3755,7 +3755,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3786,7 +3786,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3815,7 +3815,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3873,7 +3873,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5589,13 +5589,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5607,6 +5600,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5650,39 +5650,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5727,58 +5727,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5803,23 +5803,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5845,7 +5845,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5876,7 +5876,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5934,7 +5934,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5963,7 +5963,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5992,7 +5992,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6021,7 +6021,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6052,7 +6052,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6081,7 +6081,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6110,7 +6110,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6139,7 +6139,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7855,13 +7855,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7873,6 +7866,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7916,39 +7916,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7993,58 +7993,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8069,23 +8069,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8111,7 +8111,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8142,7 +8142,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8200,7 +8200,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8229,7 +8229,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8258,7 +8258,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8287,7 +8287,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8318,7 +8318,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8347,7 +8347,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8376,7 +8376,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8405,7 +8405,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10121,13 +10121,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10139,6 +10132,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10182,41 +10182,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10261,58 +10261,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10337,23 +10337,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10405,7 +10405,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10436,7 +10436,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10465,7 +10465,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10494,7 +10494,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10523,7 +10523,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10552,7 +10552,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10581,7 +10581,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10612,7 +10612,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10641,7 +10641,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10670,7 +10670,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10699,7 +10699,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12415,13 +12415,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12433,6 +12426,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12443,8 +12443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12476,41 +12476,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12555,58 +12555,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12631,23 +12631,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12697,7 +12697,7 @@
       </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12712,7 +12712,9 @@
       <c r="B7" s="61">
         <v>44860</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44866</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -12732,15 +12734,25 @@
         <v>70</v>
       </c>
       <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="M7" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
+      <c r="O7" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12753,7 +12765,9 @@
       <c r="B8" s="61">
         <v>44860</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44866</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -12775,15 +12789,25 @@
       <c r="L8" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="66"/>
+      <c r="M8" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="67"/>
+      <c r="O8" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12812,7 +12836,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12841,7 +12865,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12870,7 +12894,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12899,7 +12923,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12930,7 +12954,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12959,7 +12983,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12988,7 +13012,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13017,7 +13041,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13135,7 +13159,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13604,7 +13628,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13668,7 +13692,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14733,13 +14757,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14751,6 +14768,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14794,39 +14818,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14871,58 +14895,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14947,23 +14971,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14989,7 +15013,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15020,7 +15044,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15049,7 +15073,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15078,7 +15102,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15107,7 +15131,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15136,7 +15160,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15165,7 +15189,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15196,7 +15220,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15225,7 +15249,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15254,7 +15278,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15283,7 +15307,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16999,13 +17023,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17017,6 +17034,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17060,39 +17084,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17137,58 +17161,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17213,23 +17237,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17255,7 +17279,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17286,7 +17310,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17315,7 +17339,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17344,7 +17368,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17373,7 +17397,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17402,7 +17426,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17431,7 +17455,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17462,7 +17486,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17491,7 +17515,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17520,7 +17544,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17549,7 +17573,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19265,13 +19289,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19283,6 +19300,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19326,39 +19350,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19403,58 +19427,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19479,23 +19503,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19521,7 +19545,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19552,7 +19576,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19581,7 +19605,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19610,7 +19634,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19639,7 +19663,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19668,7 +19692,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19697,7 +19721,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19728,7 +19752,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19757,7 +19781,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19786,7 +19810,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19815,7 +19839,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21046,6 +21070,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21057,13 +21088,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_NhatQuang.xlsx
@@ -16,8 +16,8 @@
     <sheet name="PhuKien" sheetId="55" r:id="rId2"/>
     <sheet name="TOP-1" sheetId="54" r:id="rId3"/>
     <sheet name="TG102E" sheetId="53" r:id="rId4"/>
-    <sheet name="TG102LE-4G" sheetId="52" r:id="rId5"/>
-    <sheet name="TG102LE" sheetId="51" r:id="rId6"/>
+    <sheet name="TG102LE" sheetId="51" r:id="rId5"/>
+    <sheet name="TG102LE-4G" sheetId="52" r:id="rId6"/>
     <sheet name="TG102SE" sheetId="50" r:id="rId7"/>
     <sheet name="TG102" sheetId="49" r:id="rId8"/>
     <sheet name="TongThang" sheetId="25" r:id="rId9"/>
@@ -26,8 +26,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PhuKien!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'TG102'!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TG102E!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'TG102LE-4G'!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">TG102SE!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">TongThang!$S$4:$S$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TOP-1'!$S$4:$S$51</definedName>
@@ -35,8 +35,8 @@
     <definedName name="_xlnm.Criteria" localSheetId="1">PhuKien!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="7">'TG102'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="3">TG102E!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="5">TG102LE!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="4">'TG102LE-4G'!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="4">TG102LE!$S$4:$S$51</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="5">'TG102LE-4G'!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="6">TG102SE!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="8">TongThang!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">'TOP-1'!$S$4:$S$51</definedName>
@@ -734,6 +734,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -751,30 +775,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1118,39 +1118,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1195,58 +1195,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1271,23 +1271,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1313,7 +1313,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1344,7 +1344,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1489,7 +1489,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1520,7 +1520,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3323,13 +3323,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3341,6 +3334,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3384,39 +3384,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3461,58 +3461,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3537,23 +3537,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3579,7 +3579,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3610,7 +3610,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3639,7 +3639,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3668,7 +3668,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3726,7 +3726,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3755,7 +3755,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3786,7 +3786,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3815,7 +3815,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3873,7 +3873,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5589,6 +5589,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5600,13 +5607,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5650,39 +5650,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5727,58 +5727,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5803,23 +5803,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5845,7 +5845,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5876,7 +5876,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5934,7 +5934,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5963,7 +5963,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5992,7 +5992,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6021,7 +6021,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6052,7 +6052,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6081,7 +6081,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6110,7 +6110,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6139,7 +6139,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7855,6 +7855,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7866,13 +7873,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7916,39 +7916,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7993,58 +7993,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8069,23 +8069,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8111,7 +8111,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8142,7 +8142,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8200,7 +8200,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8229,7 +8229,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8258,7 +8258,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8287,7 +8287,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8318,7 +8318,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8347,7 +8347,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8376,7 +8376,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8405,7 +8405,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10121,6 +10121,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10132,13 +10139,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10149,8 +10149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10182,41 +10182,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10261,58 +10261,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="E5" s="68" t="s">
         <v>43</v>
@@ -10337,23 +10337,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10361,34 +10361,32 @@
         <v>1</v>
       </c>
       <c r="B6" s="61">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="C6" s="61">
         <v>44851</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E6" s="38">
-        <v>862205051193011</v>
+        <v>868183037798134</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J6" s="64"/>
-      <c r="K6" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="66" t="s">
-        <v>66</v>
-      </c>
+      <c r="K6" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="66"/>
       <c r="M6" s="66" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
@@ -10401,11 +10399,11 @@
         <v>19</v>
       </c>
       <c r="R6" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10417,26 +10415,50 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="B7" s="61">
+        <v>44860</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44866</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="38">
+        <v>868183035865646</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="37" t="s">
+        <v>69</v>
+      </c>
       <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
+      <c r="I7" s="63" t="s">
+        <v>71</v>
+      </c>
       <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
+      <c r="K7" s="65" t="s">
+        <v>70</v>
+      </c>
       <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="3"/>
+      <c r="M7" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10446,26 +10468,52 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
+      <c r="B8" s="61">
+        <v>44860</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44866</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="38">
+        <v>868183034743455</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="37" t="s">
+        <v>69</v>
+      </c>
       <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
+      <c r="I8" s="63" t="s">
+        <v>76</v>
+      </c>
       <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="3"/>
+      <c r="K8" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10477,24 +10525,24 @@
       </c>
       <c r="B9" s="61"/>
       <c r="C9" s="61"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="62"/>
       <c r="I9" s="63"/>
       <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
+      <c r="K9" s="64"/>
       <c r="L9" s="66"/>
       <c r="M9" s="66"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="64"/>
       <c r="O9" s="64"/>
       <c r="P9" s="66"/>
       <c r="Q9" s="64"/>
       <c r="R9" s="67"/>
-      <c r="S9" s="3"/>
+      <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10506,24 +10554,24 @@
       </c>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="62"/>
       <c r="I10" s="63"/>
       <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
+      <c r="K10" s="75"/>
       <c r="L10" s="66"/>
       <c r="M10" s="66"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="64"/>
       <c r="O10" s="64"/>
       <c r="P10" s="66"/>
       <c r="Q10" s="64"/>
       <c r="R10" s="67"/>
-      <c r="S10" s="3"/>
+      <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10535,24 +10583,24 @@
       </c>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="63"/>
       <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
+      <c r="K11" s="75"/>
       <c r="L11" s="66"/>
       <c r="M11" s="66"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="64"/>
       <c r="O11" s="64"/>
       <c r="P11" s="66"/>
       <c r="Q11" s="64"/>
       <c r="R11" s="67"/>
-      <c r="S11" s="3"/>
+      <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10562,26 +10610,26 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="67"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10612,7 +10660,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10641,7 +10689,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10670,7 +10718,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10699,7 +10747,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10817,7 +10865,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -11286,7 +11334,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11318,7 +11366,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -11350,7 +11398,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -12415,6 +12463,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12426,13 +12481,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12443,8 +12491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12476,41 +12524,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12555,58 +12603,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12614,7 +12662,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="E5" s="68" t="s">
         <v>43</v>
@@ -12631,23 +12679,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12655,32 +12703,34 @@
         <v>1</v>
       </c>
       <c r="B6" s="61">
-        <v>44847</v>
+        <v>44846</v>
       </c>
       <c r="C6" s="61">
         <v>44851</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E6" s="38">
-        <v>868183037798134</v>
+        <v>862205051193011</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J6" s="64"/>
-      <c r="K6" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="66"/>
+      <c r="K6" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="66" t="s">
+        <v>66</v>
+      </c>
       <c r="M6" s="66" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
@@ -12693,11 +12743,11 @@
         <v>19</v>
       </c>
       <c r="R6" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" s="76"/>
+        <v>24</v>
+      </c>
+      <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12709,50 +12759,26 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61">
-        <v>44860</v>
-      </c>
-      <c r="C7" s="61">
-        <v>44866</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="38">
-        <v>868183035865646</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="37" t="s">
-        <v>69</v>
-      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="62"/>
-      <c r="I7" s="63" t="s">
-        <v>71</v>
-      </c>
+      <c r="I7" s="63"/>
       <c r="J7" s="64"/>
-      <c r="K7" s="65" t="s">
-        <v>70</v>
-      </c>
+      <c r="K7" s="65"/>
       <c r="L7" s="66"/>
-      <c r="M7" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q7" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="76"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12762,52 +12788,26 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61">
-        <v>44860</v>
-      </c>
-      <c r="C8" s="61">
-        <v>44866</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="38">
-        <v>868183034743455</v>
-      </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="37" t="s">
-        <v>69</v>
-      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="62"/>
-      <c r="I8" s="63" t="s">
-        <v>76</v>
-      </c>
+      <c r="I8" s="63"/>
       <c r="J8" s="64"/>
-      <c r="K8" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="P8" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="76"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12819,24 +12819,24 @@
       </c>
       <c r="B9" s="61"/>
       <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="62"/>
       <c r="I9" s="63"/>
       <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="66"/>
       <c r="M9" s="66"/>
-      <c r="N9" s="64"/>
+      <c r="N9" s="1"/>
       <c r="O9" s="64"/>
       <c r="P9" s="66"/>
       <c r="Q9" s="64"/>
       <c r="R9" s="67"/>
-      <c r="S9" s="76"/>
+      <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12848,24 +12848,24 @@
       </c>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="62"/>
       <c r="I10" s="63"/>
       <c r="J10" s="64"/>
-      <c r="K10" s="75"/>
+      <c r="K10" s="65"/>
       <c r="L10" s="66"/>
       <c r="M10" s="66"/>
-      <c r="N10" s="64"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="64"/>
       <c r="P10" s="66"/>
       <c r="Q10" s="64"/>
       <c r="R10" s="67"/>
-      <c r="S10" s="76"/>
+      <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12877,24 +12877,24 @@
       </c>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="77"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="62"/>
       <c r="I11" s="63"/>
       <c r="J11" s="64"/>
-      <c r="K11" s="75"/>
+      <c r="K11" s="65"/>
       <c r="L11" s="66"/>
       <c r="M11" s="66"/>
-      <c r="N11" s="64"/>
+      <c r="N11" s="1"/>
       <c r="O11" s="64"/>
       <c r="P11" s="66"/>
       <c r="Q11" s="64"/>
       <c r="R11" s="67"/>
-      <c r="S11" s="76"/>
+      <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12904,26 +12904,26 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12954,7 +12954,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12983,7 +12983,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13012,7 +13012,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13041,7 +13041,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13159,7 +13159,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13628,7 +13628,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13660,7 +13660,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13692,7 +13692,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14757,6 +14757,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14768,13 +14775,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14818,39 +14818,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14895,58 +14895,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14971,23 +14971,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15013,7 +15013,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15044,7 +15044,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15073,7 +15073,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15102,7 +15102,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15131,7 +15131,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15160,7 +15160,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15189,7 +15189,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15220,7 +15220,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15249,7 +15249,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15278,7 +15278,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15307,7 +15307,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17023,6 +17023,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17034,13 +17041,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17084,39 +17084,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17161,58 +17161,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17237,23 +17237,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17279,7 +17279,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17310,7 +17310,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17339,7 +17339,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17368,7 +17368,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17397,7 +17397,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17426,7 +17426,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17455,7 +17455,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17486,7 +17486,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17515,7 +17515,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17544,7 +17544,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17573,7 +17573,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19289,6 +19289,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19300,13 +19307,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19350,39 +19350,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19427,58 +19427,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19503,23 +19503,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19545,7 +19545,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19576,7 +19576,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19605,7 +19605,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19634,7 +19634,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19663,7 +19663,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19692,7 +19692,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19721,7 +19721,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19752,7 +19752,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19781,7 +19781,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19810,7 +19810,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19839,7 +19839,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21070,13 +21070,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21088,6 +21081,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
